--- a/pred_ohlcv/54_21/2019-10-26 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 LAMB ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>371619.9442592323</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>318968.8983592323</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>378276.0984592324</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>374838.8106592324</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>290284.1829592324</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>290300.0469592324</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>284392.2152592324</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>259323.6327592324</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>262590.0107592324</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>261090.0107592324</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>87379.20506229202</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>87379.20506229202</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-979246.0368781778</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-242254.0642707704</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-242254.0642707704</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-72167.54163440684</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-72177.54163440684</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-62371.83633440683</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-64830.66093440683</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-128041.6609344068</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-123377.5409344068</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-150468.9045344068</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-367032.3982344068</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-381743.8167344069</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-381743.8167344069</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-401419.8172054969</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-366534.0856691333</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-366922.133395597</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-355542.610995597</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-353063.4325955971</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-353874.7366955971</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-390047.9325955971</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-390047.9325955971</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-476534.7341955971</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-504910.3531955971</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-641186.8799823514</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-575536.7232305012</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-577599.9622305011</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-556112.7992305011</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-556112.7992305011</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-633112.7992305011</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-633112.7992305011</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-728587.2950305011</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-738577.1750305011</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-789114.1196305011</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-789114.1196305011</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-788958.9591305011</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-790567.6143305012</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-731215.0010305012</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-748115.0010305012</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-801115.0010305012</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-801105.0010305012</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-801934.2010305012</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-805934.2010305012</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-788534.2010305012</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-980169.1302305011</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1146480.756306328</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-78261.95556266417</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-78251.83556266417</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-108251.8355626642</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-108251.8355626642</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-112747.6183626642</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-112402.4203428622</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-1305470.696622141</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-1287371.696622141</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-1335635.962722141</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-1300390.520013808</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 LAMB ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>371619.9442592323</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>318968.8983592323</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>378276.0984592324</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>374838.8106592324</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>290284.1829592324</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>290300.0469592324</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>284392.2152592324</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>259323.6327592324</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>262590.0107592324</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>261090.0107592324</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>87379.20506229202</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>87379.20506229202</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-87709.17386474145</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-979246.0368781778</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-171384.0219781778</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-259635.3674707704</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-242254.0642707704</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-242254.0642707704</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-72167.54163440684</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-72177.54163440684</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-62371.83633440683</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-64830.66093440683</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-128041.6609344068</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-123377.5409344068</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-150468.9045344068</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-367032.3982344068</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-381743.8167344069</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-381743.8167344069</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-394956.8049344069</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-641186.8799823514</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-575536.7232305012</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-577599.9622305011</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-556112.7992305011</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-556112.7992305011</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-633112.7992305011</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-633112.7992305011</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-728587.2950305011</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-738577.1750305011</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-789114.1196305011</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-789114.1196305011</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-788958.9591305011</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-790567.6143305012</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-731215.0010305012</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-748115.0010305012</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-801115.0010305012</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-801105.0010305012</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-801934.2010305012</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-805934.2010305012</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-788534.2010305012</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-980169.1302305011</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1146480.756306328</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-78261.95556266417</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-78251.83556266417</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-108251.8355626642</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-108251.8355626642</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-112747.6183626642</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-112402.4203428622</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-1363320.467722141</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1363320.467722141</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-1363320.467722141</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-1370165.265522141</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-1305470.696622141</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-1287371.696622141</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-1288037.940222141</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-1337135.962722141</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-1335635.962722141</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-1338390.520013808</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-1340890.520013808</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-1300390.520013808</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-1300390.520013808</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-1292268.69260264</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-1293768.69260264</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-1293768.69260264</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-1292229.917092436</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-1292429.917092436</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-1293028.917092436</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-1294028.917092436</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-1294028.917092436</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
